--- a/xlsx/UTC−08-00_intext.xlsx
+++ b/xlsx/UTC−08-00_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
   <si>
     <t>UTC−08-00</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>政策_政策_加州_UTC−08-00</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E8%AA%BF%E4%B8%96%E7%95%8C%E6%99%82</t>
   </si>
   <si>
-    <t>協調世界時</t>
+    <t>协调世界时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%97%B6%E5%8C%BA</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E7%8F%80%E9%A0%93%E5%B3%B6</t>
   </si>
   <si>
-    <t>克利珀頓島</t>
+    <t>克利珀顿岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0</t>
@@ -83,19 +83,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8F%E8%B0%83%E4%B8%96%E7%95%8C%E6%97%B6</t>
   </si>
   <si>
-    <t>协调世界时</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>標準時間</t>
+    <t>标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%99%82%E5%88%B6</t>
   </si>
   <si>
-    <t>夏時制</t>
+    <t>夏时制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC%E5%81%8F%E7%A7%BB%E9%87%8F</t>
@@ -167,7 +164,7 @@
     <t>https://zh.wikipedia.org/wiki/IERS%E5%8F%83%E8%80%83%E5%AD%90%E5%8D%88%E7%B7%9A</t>
   </si>
   <si>
-    <t>IERS參考子午線</t>
+    <t>IERS参考子午线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC%E2%88%9206:00</t>
@@ -477,9 +474,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA%E4%BF%A1%E6%81%AF%E6%95%B0%E6%8D%AE%E5%BA%93</t>
@@ -1146,7 +1140,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1172,10 +1166,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
@@ -1201,10 +1195,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1230,10 +1224,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1259,10 +1253,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -1288,10 +1282,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1317,10 +1311,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1346,10 +1340,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1375,10 +1369,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1404,10 +1398,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1433,10 +1427,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1462,10 +1456,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1491,10 +1485,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1520,10 +1514,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1549,10 +1543,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>10</v>
@@ -1578,10 +1572,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1607,10 +1601,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1636,10 +1630,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1665,10 +1659,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1694,10 +1688,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1723,10 +1717,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1752,10 +1746,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1781,10 +1775,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1810,10 +1804,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1839,10 +1833,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1868,10 +1862,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1897,10 +1891,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -1926,10 +1920,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1955,10 +1949,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1984,10 +1978,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2013,10 +2007,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2042,10 +2036,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2071,10 +2065,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2100,10 +2094,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2129,10 +2123,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2158,10 +2152,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2187,10 +2181,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2216,10 +2210,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2245,10 +2239,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2274,10 +2268,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2303,10 +2297,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2332,10 +2326,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2361,10 +2355,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2390,10 +2384,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2419,10 +2413,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2448,10 +2442,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2477,10 +2471,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2506,10 +2500,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2535,10 +2529,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2564,10 +2558,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2593,10 +2587,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2622,10 +2616,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2651,10 +2645,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2680,10 +2674,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2709,10 +2703,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2738,10 +2732,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2767,10 +2761,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2796,10 +2790,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2825,10 +2819,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2854,10 +2848,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2883,10 +2877,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2912,10 +2906,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2941,10 +2935,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2970,10 +2964,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2999,10 +2993,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3028,10 +3022,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3057,10 +3051,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3086,10 +3080,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
